--- a/public/temmuz 2024 dene.xlsx
+++ b/public/temmuz 2024 dene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\-Downloads-\Study\BM\Staj\2 MaPos\Meyvalı Lokantası\meyvali-excel\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D871AB-D72D-47D1-8CE6-C152F6D334E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CE02DC-ED96-4F19-A2EE-803763B58010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,37 +394,37 @@
     <t>Adisyon ve tahsilat yönetimi ; tahsilatlar veresiye hanesinden ( veya tahsil edilmiş adisyondan düşülecek )</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Bimden ekmek</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>100.5</t>
+    <t>Katagori</t>
+  </si>
+  <si>
+    <t>Ürün Adı</t>
+  </si>
+  <si>
+    <t>Adet/Kg</t>
+  </si>
+  <si>
+    <t>Fiyat</t>
+  </si>
+  <si>
+    <t>Ödeme Türü</t>
+  </si>
+  <si>
+    <t>Ek Bilgi</t>
   </si>
   <si>
     <t>Nakit</t>
   </si>
   <si>
-    <t>Katagori</t>
-  </si>
-  <si>
-    <t>Ürün Adı</t>
-  </si>
-  <si>
-    <t>Adet/Kg</t>
-  </si>
-  <si>
-    <t>Fiyat</t>
-  </si>
-  <si>
-    <t>Ödeme Türü</t>
-  </si>
-  <si>
-    <t>Ek Bilgi</t>
+    <t>Bimden Et</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>5 Ekmek</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>Tarih</t>
@@ -2812,93 +2812,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
       <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
         <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
         <v>67</v>
       </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-    </row>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:G3" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:G1 A2:G3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/temmuz 2024 dene.xlsx
+++ b/public/temmuz 2024 dene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\-Downloads-\Study\BM\Staj\2 MaPos\Meyvalı Lokantası\meyvali-excel\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CE02DC-ED96-4F19-A2EE-803763B58010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89B12A4-2198-4CA9-B0DF-9A83CE1638B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -394,6 +394,9 @@
     <t>Adisyon ve tahsilat yönetimi ; tahsilatlar veresiye hanesinden ( veya tahsil edilmiş adisyondan düşülecek )</t>
   </si>
   <si>
+    <t>Tarih</t>
+  </si>
+  <si>
     <t>Katagori</t>
   </si>
   <si>
@@ -412,22 +415,19 @@
     <t>Ek Bilgi</t>
   </si>
   <si>
+    <t>Bimden Et</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
     <t>Nakit</t>
   </si>
   <si>
-    <t>Bimden Et</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>5 Ekmek</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Tarih</t>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -2812,7 +2812,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -2820,34 +2820,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2867,7 +2863,7 @@
         <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
         <v>67</v>
@@ -2881,13 +2877,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>66</v>
@@ -2896,12 +2892,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:G1 A2:G3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/temmuz 2024 dene.xlsx
+++ b/public/temmuz 2024 dene.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57F31C2-319A-44A1-90CC-C784B5A7E6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8E528C-11EB-4764-AB9A-82BE16A8A4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1002,7 +1003,7 @@
   <dimension ref="A1:AD121"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4649,7 +4650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4657,4 +4658,18 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>